--- a/Data_preparation/datasets/final_data/SIEMENS_ENERGY_AG_NPV.xlsx
+++ b/Data_preparation/datasets/final_data/SIEMENS_ENERGY_AG_NPV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,67 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
     <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
   <si>
     <t>EUR</t>
@@ -718,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>13.19506057834629</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E2">
-        <v>13.02006114768982</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F2">
-        <v>13.47506251467241</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G2">
-        <v>12.49505783111611</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>795535712</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -820,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>0.1270935804717543</v>
@@ -846,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>22799.20300311841</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E3">
-        <v>21306.82615039063</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F3">
-        <v>23572.36209549545</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G3">
-        <v>21127.02171030295</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>795535712</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>86044703509.05</v>
@@ -948,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>-2.654709997976719</v>
@@ -974,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>872.6184122529871</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E4">
-        <v>873.1955408325196</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F4">
-        <v>888.7780124798943</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G4">
-        <v>841.8343935468035</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>795535712</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>74707693655.14</v>
@@ -1076,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM4">
         <v>-0.5544910251703031</v>
@@ -1102,22 +1042,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>31.383625</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E5">
-        <v>29.32416420555115</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F5">
-        <v>31.383625</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G5">
-        <v>25.72010947036743</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>795535712</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>83997091640.28</v>
@@ -1204,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>0.3131235037157121</v>
@@ -1230,22 +1170,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>12.95815170700547</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E6">
-        <v>13.08984023857117</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F6">
-        <v>13.69033962100555</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G6">
-        <v>12.71057662465155</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>795535712</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>87247701432.45</v>
@@ -1332,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>-0.4404620785562932</v>
@@ -1358,22 +1298,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>20.23592973518372</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E7">
-        <v>21.67060947036743</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F7">
-        <v>21.83259097099304</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G7">
-        <v>19.43759911727905</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>795535712</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>85992608357.63</v>
@@ -1460,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>1.868387899203079</v>
@@ -1486,22 +1426,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.05616809421494</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E8">
-        <v>10.42982245445251</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F8">
-        <v>10.91719712313344</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G8">
-        <v>9.639191564158663</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>795535712</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>97536774179</v>
@@ -1588,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM8">
         <v>0.8918532078404211</v>
@@ -1614,22 +1554,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>618.9570490869983</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E9">
-        <v>521.1219026184082</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F9">
-        <v>660.8863975735369</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G9">
-        <v>515.1319956917598</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>795535712</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>109331048216</v>
@@ -1716,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM9">
         <v>0.3805842263210836</v>
@@ -1742,22 +1682,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>11.30339678918528</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E10">
-        <v>11.18565336894989</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F10">
-        <v>11.53888437825048</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G10">
-        <v>10.8716704159259</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>795535712</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>120752752286.4</v>
@@ -1844,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM10">
         <v>14.95367987895738</v>
@@ -1870,22 +1810,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>930.7952226609096</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E11">
-        <v>917.9634751586914</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F11">
-        <v>1012.720995175073</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G11">
-        <v>866.6364851498182</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>795535712</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>113182194218.6</v>
@@ -1972,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM11">
         <v>4.068189597954592</v>
@@ -1998,22 +1938,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>18.86818684636498</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E12">
-        <v>19.2411628112793</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F12">
-        <v>20.72575325261764</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G12">
-        <v>18.86818684636498</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>795535712</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>112635104223.2</v>
@@ -2100,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>5.548453926475503</v>
@@ -2126,22 +2066,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>24.36754608677801</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E13">
-        <v>24.98113742256164</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F13">
-        <v>27.21140574230897</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G13">
-        <v>24.0207352740224</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>795535712</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>108904939029.8506</v>
@@ -2228,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM13">
         <v>0.9396031817976183</v>
@@ -2254,22 +2194,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>18.45757314406327</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E14">
-        <v>17.1458679599762</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F14">
-        <v>18.83234656884871</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G14">
-        <v>15.55308270730004</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>795535712</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>97507025996.64</v>
@@ -2356,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>0.2923176961813564</v>
@@ -2382,19 +2322,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>37.44873108618253</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E15">
-        <v>36.58783875274658</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F15">
-        <v>38.56788810488639</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G15">
-        <v>34.73692509297725</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>795535712</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2484,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM15">
         <v>-0.9291230529370175</v>
@@ -2510,22 +2450,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>137.5325650948199</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E16">
-        <v>152.3011590118408</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F16">
-        <v>159.2239383115644</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G16">
-        <v>113.9951140339675</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>795535712</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>103783817107.62</v>
@@ -2612,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM16">
         <v>-0.7230958302938588</v>
@@ -2638,22 +2578,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>206.7603717690826</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E17">
-        <v>165.2236817016602</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F17">
-        <v>209.9909953690139</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G17">
-        <v>165.2236817016602</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>795535712</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>91658108133.28</v>
@@ -2740,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM17">
         <v>-0.3695542127165121</v>
@@ -2766,22 +2706,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1268.310006023214</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E18">
-        <v>1394.216919189453</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F18">
-        <v>1498.176755748733</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G18">
-        <v>1197.848339021925</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>795535712</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>91180429645.5</v>
@@ -2868,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM18">
         <v>-0.5332553432695077</v>
@@ -2894,22 +2834,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>46909.52164104707</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E19">
-        <v>44928.1268515625</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F19">
-        <v>47107.66111999553</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G19">
-        <v>43937.42945682022</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>795535712</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>98674073940</v>
@@ -2996,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM19">
         <v>-2.404001101363309</v>
@@ -3022,22 +2962,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>70.30402277742479</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E20">
-        <v>68.96688168334961</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F20">
-        <v>70.74276808941683</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G20">
-        <v>64.95548231095034</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>795535712</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>92225980752.75</v>
@@ -3124,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM20">
         <v>11.68205632567052</v>
@@ -3150,22 +3090,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>257.8329964679378</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E21">
-        <v>253.4349922637939</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F21">
-        <v>292.4672795755714</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G21">
-        <v>235.2932249217003</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>795535712</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>109670708544.02</v>
@@ -3252,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM21">
         <v>1.430631566774609</v>
@@ -3278,22 +3218,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>14.35987247751827</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E22">
-        <v>18.78085252571106</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F22">
-        <v>19.86227483177186</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G22">
-        <v>13.95212297949352</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>795535712</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>71711520334.61</v>
@@ -3380,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-0.6680695357836868</v>
@@ -3406,22 +3346,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>1122.682585120727</v>
+        <v>25.1507066798447</v>
       </c>
       <c r="E23">
-        <v>1259.542938354492</v>
+        <v>26.47442762184143</v>
       </c>
       <c r="F23">
-        <v>1293.758026662933</v>
+        <v>26.90032155394166</v>
       </c>
       <c r="G23">
-        <v>1099.159711908674</v>
+        <v>24.81689762556659</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>795535712</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>97508575350.51985</v>
@@ -3505,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO23">
         <v>0.0837506741659604</v>
@@ -3525,22 +3465,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>14.77880914739032</v>
+        <v>26.93485171869436</v>
       </c>
       <c r="E24">
-        <v>17.95704768466949</v>
+        <v>21.6399658126831</v>
       </c>
       <c r="F24">
-        <v>20.02290166378595</v>
+        <v>27.3607456461734</v>
       </c>
       <c r="G24">
-        <v>14.67286878005579</v>
+        <v>21.1335000878952</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>795535712</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>99767604159.60001</v>
@@ -3627,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM24">
         <v>-0.5075308160995642</v>
@@ -3653,22 +3593,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>37.61124380306016</v>
+        <v>34.53186385260599</v>
       </c>
       <c r="E25">
-        <v>36.16380609130859</v>
+        <v>35.19947979927063</v>
       </c>
       <c r="F25">
-        <v>38.1747476424971</v>
+        <v>39.68862166101405</v>
       </c>
       <c r="G25">
-        <v>35.61134952856651</v>
+        <v>33.78367390822821</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>795535712</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>108801258656.48</v>
@@ -3755,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>1.01727186763623</v>
@@ -3781,22 +3721,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2911.416905565497</v>
+        <v>35.24552289176231</v>
       </c>
       <c r="E26">
-        <v>3228.227164550781</v>
+        <v>31.99952588653564</v>
       </c>
       <c r="F26">
-        <v>3247.883275509722</v>
+        <v>37.51311446565366</v>
       </c>
       <c r="G26">
-        <v>2896.940735382299</v>
+        <v>31.90744100524759</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>795535712</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>130355333371.9</v>
@@ -3883,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>0.4540988183247092</v>
@@ -3909,22 +3849,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.35473723828192</v>
+        <v>29.36359504940638</v>
       </c>
       <c r="E27">
-        <v>46.33250424194337</v>
+        <v>26.40536574172974</v>
       </c>
       <c r="F27">
-        <v>46.89943080679002</v>
+        <v>31.82686729244109</v>
       </c>
       <c r="G27">
-        <v>41.95270573549815</v>
+        <v>24.83992055039274</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>795535712</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>124082173667.4</v>
@@ -4011,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM27">
         <v>0.6440281702888826</v>
@@ -4037,22 +3977,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>59.84004141235351</v>
+        <v>26.54349102739689</v>
       </c>
       <c r="E28">
-        <v>52.33110947036743</v>
+        <v>28.56936055755615</v>
       </c>
       <c r="F28">
-        <v>61.59868194198609</v>
+        <v>29.08733937325588</v>
       </c>
       <c r="G28">
-        <v>50.37578105926514</v>
+        <v>24.47158015555137</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>795535712</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>131890373241.12</v>
@@ -4139,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>1.254311043025224</v>
@@ -4165,22 +4105,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>113.4567031103399</v>
+        <v>26.03702501579154</v>
       </c>
       <c r="E29">
-        <v>97.69401095581055</v>
+        <v>22.74498678970337</v>
       </c>
       <c r="F29">
-        <v>113.4567031103399</v>
+        <v>27.61397882382244</v>
       </c>
       <c r="G29">
-        <v>93.21203893338271</v>
+        <v>20.49466052839231</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>795535712</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>141889953399.48</v>
@@ -4267,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>0.8417151151489836</v>
@@ -4293,22 +4233,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>653.5223021794563</v>
+        <v>24.1003099117279</v>
       </c>
       <c r="E30">
-        <v>656.6947405395508</v>
+        <v>21.32351035308838</v>
       </c>
       <c r="F30">
-        <v>657.7522199929157</v>
+        <v>25.22259911727905</v>
       </c>
       <c r="G30">
-        <v>563.636548643447</v>
+        <v>20.83178402900696</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>795535712</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>116611995832.02</v>
@@ -4395,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>-0.993124078370888</v>
@@ -4421,22 +4361,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>1146.533268821023</v>
+        <v>16.14593491172791</v>
       </c>
       <c r="E31">
-        <v>1079.284682861328</v>
+        <v>18.72604438209534</v>
       </c>
       <c r="F31">
-        <v>1232.523263982599</v>
+        <v>18.83017455863953</v>
       </c>
       <c r="G31">
-        <v>1079.284682861328</v>
+        <v>15.45751960277557</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>795535712</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>90099145912.23</v>
@@ -4517,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO31">
         <v>0.07835674707561426</v>
@@ -4537,22 +4477,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>4431.253348723354</v>
+        <v>13.07988535308838</v>
       </c>
       <c r="E32">
-        <v>4301.953671386719</v>
+        <v>13.66995451450348</v>
       </c>
       <c r="F32">
-        <v>4659.171424028611</v>
+        <v>14.10961464691162</v>
       </c>
       <c r="G32">
-        <v>4131.015114907777</v>
+        <v>11.85925</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>795535712</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>93206347405.60001</v>
@@ -4639,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>4.983206434689958</v>
@@ -4680,7 +4620,7 @@
         <v>795535712</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>118709639863.36</v>
@@ -4767,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>-2.084062600418709</v>
@@ -4793,22 +4733,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>5375.61069363049</v>
+        <v>23.77634911727905</v>
       </c>
       <c r="E34">
-        <v>5087.3741953125</v>
+        <v>25.66226035308838</v>
       </c>
       <c r="F34">
-        <v>5376.719295547097</v>
+        <v>25.70853920555114</v>
       </c>
       <c r="G34">
-        <v>4887.825850323124</v>
+        <v>23.55652070617676</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>795535712</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>136621791674.1103</v>
@@ -4895,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>3.614668723105548</v>
@@ -4921,22 +4861,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>346.9689219983833</v>
+        <v>19.07314570617676</v>
       </c>
       <c r="E35">
-        <v>323.5855497741699</v>
+        <v>17.80623039722443</v>
       </c>
       <c r="F35">
-        <v>360.2120060943994</v>
+        <v>19.11364052963257</v>
       </c>
       <c r="G35">
-        <v>317.8341172066877</v>
+        <v>16.83435022068024</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>795535712</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>139789173620.46</v>
@@ -5017,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO35">
         <v>0.08393496831082943</v>
@@ -5037,22 +4977,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1580.773709865663</v>
+        <v>14.38151035308838</v>
       </c>
       <c r="E36">
-        <v>1620.293052612305</v>
+        <v>9.684089867591858</v>
       </c>
       <c r="F36">
-        <v>1992.903998509211</v>
+        <v>14.56663017654419</v>
       </c>
       <c r="G36">
-        <v>1569.482469080908</v>
+        <v>7.407113942623139</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>795535712</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>124152227957.94</v>
@@ -5139,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM36">
         <v>-0.427816018832353</v>
@@ -5165,22 +5105,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>144.1598878880684</v>
+        <v>13.884</v>
       </c>
       <c r="E37">
-        <v>152.8968544158936</v>
+        <v>16.15750517654419</v>
       </c>
       <c r="F37">
-        <v>157.4893675024394</v>
+        <v>16.38311982345581</v>
       </c>
       <c r="G37">
-        <v>141.8076302985351</v>
+        <v>12.83113017654419</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>795535712</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>153344993416.68</v>
@@ -5267,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>0.2315709269223711</v>
@@ -5293,22 +5233,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4809.33501228645</v>
+        <v>19.84254955863953</v>
       </c>
       <c r="E38">
-        <v>5268.704003417969</v>
+        <v>22.33009911727905</v>
       </c>
       <c r="F38">
-        <v>5896.545729683295</v>
+        <v>22.52678920555114</v>
       </c>
       <c r="G38">
-        <v>4339.857657046905</v>
+        <v>19.12521079444885</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>795535712</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>160453095529.0744</v>
@@ -5395,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>-0.4140870680771571</v>
@@ -5421,22 +5361,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>3344.812269500415</v>
+        <v>28.32335947036743</v>
       </c>
       <c r="E39">
-        <v>3113.497451416016</v>
+        <v>31.13486982345581</v>
       </c>
       <c r="F39">
-        <v>3488.227456712743</v>
+        <v>32.29186982345581</v>
       </c>
       <c r="G39">
-        <v>2914.566707863432</v>
+        <v>27.58288017654419</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>795535712</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>161725157699.04</v>
@@ -5523,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM39">
         <v>0.3153007040480734</v>
@@ -5549,22 +5489,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.14421118184682</v>
+        <v>38.41240088272095</v>
       </c>
       <c r="E40">
-        <v>33.2778978099823</v>
+        <v>43.42220858764649</v>
       </c>
       <c r="F40">
-        <v>36.44804188630448</v>
+        <v>44.67177070617676</v>
       </c>
       <c r="G40">
-        <v>33.12885047684772</v>
+        <v>37.69506211853027</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>795535712</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>165018591404.94</v>
@@ -5651,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM40">
         <v>1.673349454677711</v>
@@ -5677,22 +5617,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2865.882895130199</v>
+        <v>57.94256211853028</v>
       </c>
       <c r="E41">
-        <v>2758.291954589844</v>
+        <v>66.92088017654419</v>
       </c>
       <c r="F41">
-        <v>3191.4870572918</v>
+        <v>68.77207841110229</v>
       </c>
       <c r="G41">
-        <v>2690.906049725095</v>
+        <v>54.24016123580932</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>795535712</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>171482295218</v>
@@ -5779,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM41">
         <v>0.1790569654442583</v>
@@ -5805,22 +5745,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>4154.444877947366</v>
+        <v>63.63500000000001</v>
       </c>
       <c r="E42">
-        <v>4297.901064208984</v>
+        <v>78.14378105926514</v>
       </c>
       <c r="F42">
-        <v>4297.901064208984</v>
+        <v>81.54536388397217</v>
       </c>
       <c r="G42">
-        <v>3527.402515416741</v>
+        <v>48.37417158889771</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>795535712</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>192425038660.3012</v>
@@ -5907,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM42">
         <v>1.675535109814924</v>
@@ -5933,22 +5873,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>3398.109</v>
+        <v>114.543</v>
       </c>
       <c r="E43">
-        <v>3499.925</v>
+        <v>118.014</v>
       </c>
       <c r="F43">
-        <v>3615.625</v>
+        <v>121.3114482345581</v>
       </c>
       <c r="G43">
-        <v>3343.73</v>
+        <v>100.8903964691162</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>795535712</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>197730643923.15</v>
@@ -6035,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM43">
         <v>5.179102157992658</v>
